--- a/csv/impedance_check.xlsx
+++ b/csv/impedance_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyakooti/repositories/arai_MATLAB_program/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577B7ACD-FF31-EC48-9091-497785D4489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53807C5B-B321-CB45-8122-D98118AA09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>FCz</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>O1</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -88,6 +84,10 @@
   </si>
   <si>
     <t>sub_06</t>
+  </si>
+  <si>
+    <t>FCZ</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1089,24 +1089,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>12</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>11</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>35</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>32</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>43</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>

--- a/csv/impedance_check.xlsx
+++ b/csv/impedance_check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyakooti/repositories/arai_MATLAB_program/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53807C5B-B321-CB45-8122-D98118AA09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE241817-411E-284B-8986-B45E04629343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>REF</t>
     <phoneticPr fontId="18"/>
@@ -88,6 +88,78 @@
   <si>
     <t>FCZ</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>sub_07</t>
+  </si>
+  <si>
+    <t>sub_08</t>
+  </si>
+  <si>
+    <t>sub_09</t>
+  </si>
+  <si>
+    <t>sub_10</t>
+  </si>
+  <si>
+    <t>sub_11</t>
+  </si>
+  <si>
+    <t>sub_12</t>
+  </si>
+  <si>
+    <t>sub_13</t>
+  </si>
+  <si>
+    <t>sub_14</t>
+  </si>
+  <si>
+    <t>sub_15</t>
+  </si>
+  <si>
+    <t>sub_16</t>
+  </si>
+  <si>
+    <t>sub_17</t>
+  </si>
+  <si>
+    <t>sub_18</t>
+  </si>
+  <si>
+    <t>sub_19</t>
+  </si>
+  <si>
+    <t>sub_20</t>
+  </si>
+  <si>
+    <t>sub_21</t>
+  </si>
+  <si>
+    <t>sub_22</t>
+  </si>
+  <si>
+    <t>sub_23</t>
+  </si>
+  <si>
+    <t>sub_24</t>
+  </si>
+  <si>
+    <t>sub_25</t>
+  </si>
+  <si>
+    <t>sub_26</t>
+  </si>
+  <si>
+    <t>sub_27</t>
+  </si>
+  <si>
+    <t>sub_28</t>
+  </si>
+  <si>
+    <t>sub_29</t>
+  </si>
+  <si>
+    <t>sub_30</t>
   </si>
 </sst>
 </file>
@@ -770,9 +842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -810,7 +882,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -916,7 +988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1058,7 +1130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1066,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:J7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1296,7 +1368,126 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="21" customHeight="1"/>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" customHeight="1">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
